--- a/xlsx/Peugeot_intext.xlsx
+++ b/xlsx/Peugeot_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="247">
   <si>
     <t>Peugeot</t>
   </si>
@@ -29,13 +29,13 @@
     <t>标致雪铁龙集团</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Peugeot</t>
+    <t>政策_政策_混合动力车辆_Peugeot</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%9C%81</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E6%A5%AD</t>
   </si>
   <si>
-    <t>製造業</t>
+    <t>制造业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB2008</t>
   </si>
   <si>
-    <t>標緻2008</t>
+    <t>标致2008</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B43008</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%B9%B4%E5%BA%A6%E9%A2%A8%E9%9B%B2%E8%BB%8A</t>
   </si>
   <si>
-    <t>歐洲年度風雲車</t>
+    <t>欧洲年度风云车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4408</t>
@@ -125,15 +125,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英國英語</t>
+    <t>英国英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BD%A6%E5%B7%A5%E4%B8%9A</t>
   </si>
   <si>
@@ -149,7 +146,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BB%8A</t>
   </si>
   <si>
-    <t>摩托車</t>
+    <t>摩托车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E8%A1%8C%E8%BD%A6</t>
@@ -185,9 +182,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%89%98%E8%BD%A6</t>
   </si>
   <si>
-    <t>摩托车</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
@@ -197,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
@@ -233,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%90%B5%E9%BE%8D</t>
   </si>
   <si>
-    <t>雪鐵龍</t>
+    <t>雪铁龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E6%96%AF%E5%8B%92</t>
@@ -269,13 +263,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%8D%85205</t>
   </si>
   <si>
-    <t>寶獅205</t>
+    <t>宝狮205</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%8D%85206</t>
   </si>
   <si>
-    <t>寶獅206</t>
+    <t>宝狮206</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Peugeot_206_WRC</t>
@@ -287,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8</t>
   </si>
   <si>
-    <t>速霸陸</t>
+    <t>速霸陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E9%9C%B8%E9%99%B8Impreza</t>
   </si>
   <si>
-    <t>速霸陸Impreza</t>
+    <t>速霸陆Impreza</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9</t>
@@ -323,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B6%E7%8D%85307</t>
   </si>
   <si>
-    <t>寶獅307</t>
+    <t>宝狮307</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Prost_Grand_Prix</t>
@@ -335,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%BB%8A</t>
   </si>
   <si>
-    <t>概念車</t>
+    <t>概念车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4307</t>
@@ -347,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB505</t>
   </si>
   <si>
-    <t>標緻505</t>
+    <t>标致505</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB205</t>
   </si>
   <si>
-    <t>標緻205</t>
+    <t>标致205</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4406</t>
@@ -389,13 +383,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB106</t>
   </si>
   <si>
-    <t>標緻106</t>
+    <t>标致106</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB107</t>
   </si>
   <si>
-    <t>標緻107</t>
+    <t>标致107</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4207</t>
@@ -407,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB208</t>
   </si>
   <si>
-    <t>標緻208</t>
+    <t>标致208</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%87%E8%87%B4403</t>
@@ -425,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB508</t>
   </si>
   <si>
-    <t>標緻508</t>
+    <t>标致508</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E7%B4%A7%E5%87%91%E5%9E%8B%E8%BD%A6</t>
@@ -455,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%A8%E7%95%8C%E4%BC%91%E6%97%85%E8%BB%8A</t>
   </si>
   <si>
-    <t>跨界休旅車</t>
+    <t>跨界休旅车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/SUV</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/CAC40%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>CAC40指數</t>
+    <t>CAC40指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%AB%98%E9%9B%86%E5%9B%A2</t>
@@ -503,13 +497,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%90%E8%A8%8A</t>
   </si>
   <si>
-    <t>源訊</t>
+    <t>源讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%B3%BD%E6%A8%82%E7%B1%B3%E5%A1%94%E7%88%BE</t>
   </si>
   <si>
-    <t>安賽樂米塔爾</t>
+    <t>安赛乐米塔尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E7%9B%9B</t>
@@ -521,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%B7%B4%E9%BB%8E%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>法國巴黎銀行</t>
+    <t>法国巴黎银行</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Bouygues</t>
@@ -533,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%8D%B7</t>
   </si>
   <si>
-    <t>凱捷</t>
+    <t>凯捷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E6%A8%82%E7%A6%8F</t>
   </si>
   <si>
-    <t>家樂福</t>
+    <t>家乐福</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%86%9C%E4%B8%9A%E4%BF%A1%E8%B4%B7%E9%93%B6%E8%A1%8C</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E9%9B%85</t>
   </si>
   <si>
-    <t>萊雅</t>
+    <t>莱雅</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/LafargeHolcim</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%A9%E6%82%85%C2%B7%E8%BB%92%E5%B0%BC%E8%A9%A9%EF%BC%8D%E8%B7%AF%E6%98%93%C2%B7%E5%A8%81%E7%99%BB%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>酩悅·軒尼詩－路易·威登集團</t>
+    <t>酩悦·轩尼诗－路易·威登集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%85%B6%E6%9E%97</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%9F%BA%E4%BA%9E</t>
   </si>
   <si>
-    <t>諾基亞</t>
+    <t>诺基亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Orange_(%E5%85%AC%E5%8F%B8)</t>
@@ -629,7 +623,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B3%B0%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>賽峰集團</t>
+    <t>赛峰集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E6%88%88%E7%8F%AD</t>
@@ -713,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>法國經濟</t>
+    <t>法国经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>法國交通</t>
+    <t>法国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -731,9 +725,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E9%93%81%E9%BE%99</t>
   </si>
   <si>
-    <t>雪铁龙</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AF%BA%E5%8D%A1%E8%BD%A6</t>
   </si>
   <si>
@@ -755,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BB%8A%E5%B1%95</t>
   </si>
   <si>
-    <t>巴黎車展</t>
+    <t>巴黎车展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB%E6%B1%BD%E8%BB%8A</t>
@@ -1657,7 +1648,7 @@
         <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
         <v>14</v>
@@ -1683,10 +1674,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1712,10 +1703,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>30</v>
@@ -1741,10 +1732,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1770,10 +1761,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>10</v>
@@ -1799,10 +1790,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1828,10 +1819,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1857,10 +1848,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -1886,10 +1877,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1915,10 +1906,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -1944,10 +1935,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1973,10 +1964,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -2002,10 +1993,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2031,10 +2022,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2060,10 +2051,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -2089,10 +2080,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -2118,10 +2109,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2147,10 +2138,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>3</v>
@@ -2176,10 +2167,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -2205,10 +2196,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2234,10 +2225,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2263,10 +2254,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2292,10 +2283,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2321,10 +2312,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2350,10 +2341,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>10</v>
@@ -2379,10 +2370,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2408,10 +2399,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2437,10 +2428,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2466,10 +2457,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2495,10 +2486,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2524,10 +2515,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2553,10 +2544,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2582,10 +2573,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>12</v>
@@ -2611,10 +2602,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2640,10 +2631,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2698,10 +2689,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -2756,10 +2747,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2785,10 +2776,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2814,10 +2805,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2843,10 +2834,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2872,10 +2863,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2901,10 +2892,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2930,10 +2921,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -2959,10 +2950,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -2988,10 +2979,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3017,10 +3008,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3046,10 +3037,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>3</v>
@@ -3075,10 +3066,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3133,10 +3124,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3162,10 +3153,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G71" t="n">
         <v>9</v>
@@ -3191,10 +3182,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3249,10 +3240,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3278,10 +3269,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3365,10 +3356,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G78" t="n">
         <v>83</v>
@@ -3423,10 +3414,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3452,10 +3443,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3481,10 +3472,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3510,10 +3501,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -3539,10 +3530,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F84" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3568,10 +3559,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3597,10 +3588,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3626,10 +3617,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3655,10 +3646,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3684,10 +3675,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F89" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3713,10 +3704,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F90" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3742,10 +3733,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F91" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3771,10 +3762,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3800,10 +3791,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3829,10 +3820,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3858,10 +3849,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3887,10 +3878,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F96" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3916,10 +3907,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3945,10 +3936,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3974,10 +3965,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4003,10 +3994,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4032,10 +4023,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4061,10 +4052,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4090,10 +4081,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F103" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4119,10 +4110,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4148,10 +4139,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4177,10 +4168,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F106" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4206,10 +4197,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4235,10 +4226,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4264,10 +4255,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4293,10 +4284,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4322,10 +4313,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4351,10 +4342,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4380,10 +4371,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4409,10 +4400,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4438,10 +4429,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4467,10 +4458,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4496,10 +4487,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4525,10 +4516,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4554,10 +4545,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4583,10 +4574,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4612,10 +4603,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4641,10 +4632,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4670,10 +4661,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4699,10 +4690,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4728,10 +4719,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4757,10 +4748,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4786,10 +4777,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
         <v>39</v>
-      </c>
-      <c r="F127" t="s">
-        <v>40</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4815,10 +4806,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4844,10 +4835,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4873,10 +4864,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4902,10 +4893,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="G131" t="n">
         <v>7</v>
@@ -4931,10 +4922,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4960,10 +4951,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4989,10 +4980,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F134" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5018,10 +5009,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F135" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5047,10 +5038,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F136" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5076,10 +5067,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F137" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5105,10 +5096,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F138" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
